--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H2">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I2">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J2">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>68.70297238080485</v>
+        <v>101.3568517678947</v>
       </c>
       <c r="R2">
-        <v>68.70297238080485</v>
+        <v>912.211665911052</v>
       </c>
       <c r="S2">
-        <v>0.1482317372362406</v>
+        <v>0.1702766129955509</v>
       </c>
       <c r="T2">
-        <v>0.1482317372362406</v>
+        <v>0.2104284826283619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H3">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I3">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J3">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>22.10736521005559</v>
+        <v>0.1493017653403333</v>
       </c>
       <c r="R3">
-        <v>22.10736521005559</v>
+        <v>1.343715888063</v>
       </c>
       <c r="S3">
-        <v>0.04769827326594889</v>
+        <v>0.0002508226969660204</v>
       </c>
       <c r="T3">
-        <v>0.04769827326594889</v>
+        <v>0.0003099676379673595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H4">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I4">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J4">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>31.30194122305187</v>
+        <v>28.129764341716</v>
       </c>
       <c r="R4">
-        <v>31.30194122305187</v>
+        <v>253.167879075444</v>
       </c>
       <c r="S4">
-        <v>0.06753625011508298</v>
+        <v>0.04725719981357621</v>
       </c>
       <c r="T4">
-        <v>0.06753625011508298</v>
+        <v>0.05840062634024777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H5">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I5">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J5">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>1.722707867593271</v>
+        <v>39.97025319856368</v>
       </c>
       <c r="R5">
-        <v>1.722707867593271</v>
+        <v>359.732278787073</v>
       </c>
       <c r="S5">
-        <v>0.003716869461607691</v>
+        <v>0.06714888255222866</v>
       </c>
       <c r="T5">
-        <v>0.003716869461607691</v>
+        <v>0.08298284313433435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.128306697285094</v>
+        <v>0.514897</v>
       </c>
       <c r="H6">
-        <v>0.128306697285094</v>
+        <v>1.544691</v>
       </c>
       <c r="I6">
-        <v>0.08467230928172495</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J6">
-        <v>0.08467230928172495</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>21.77247988779792</v>
+        <v>2.240874480451001</v>
       </c>
       <c r="R6">
-        <v>21.77247988779792</v>
+        <v>13.445246882706</v>
       </c>
       <c r="S6">
-        <v>0.04697573344892283</v>
+        <v>0.003764605056529835</v>
       </c>
       <c r="T6">
-        <v>0.04697573344892283</v>
+        <v>0.003101542115519725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H7">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J7">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>7.005987481010644</v>
+        <v>24.67020592282711</v>
       </c>
       <c r="R7">
-        <v>7.005987481010644</v>
+        <v>222.031853305444</v>
       </c>
       <c r="S7">
-        <v>0.01511593544467538</v>
+        <v>0.04144524058483428</v>
       </c>
       <c r="T7">
-        <v>0.01511593544467538</v>
+        <v>0.05121818513422012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H8">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J8">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>9.919816597605344</v>
+        <v>0.03633997338455555</v>
       </c>
       <c r="R8">
-        <v>9.919816597605344</v>
+        <v>0.327059760461</v>
       </c>
       <c r="S8">
-        <v>0.02140273697588611</v>
+        <v>6.105011626091785E-05</v>
       </c>
       <c r="T8">
-        <v>0.02140273697588611</v>
+        <v>7.544596467517058E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H9">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J9">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>0.545938859702162</v>
+        <v>6.846770265318666</v>
       </c>
       <c r="R9">
-        <v>0.545938859702162</v>
+        <v>61.620932387868</v>
       </c>
       <c r="S9">
-        <v>0.001177903412240629</v>
+        <v>0.01150237828427105</v>
       </c>
       <c r="T9">
-        <v>0.001177903412240629</v>
+        <v>0.01421468260611821</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.982154480542649</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H10">
-        <v>0.982154480542649</v>
+        <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.6481445606393947</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J10">
-        <v>0.6481445606393947</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>166.6626850102057</v>
+        <v>9.728739202103446</v>
       </c>
       <c r="R10">
-        <v>166.6626850102057</v>
+        <v>87.55865281893101</v>
       </c>
       <c r="S10">
-        <v>0.3595870524289205</v>
+        <v>0.0163440036973992</v>
       </c>
       <c r="T10">
-        <v>0.3595870524289205</v>
+        <v>0.02019798161128512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.982154480542649</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H11">
-        <v>0.982154480542649</v>
+        <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.6481445606393947</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J11">
-        <v>0.6481445606393947</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>53.62901657277484</v>
+        <v>0.5454277033636667</v>
       </c>
       <c r="R11">
-        <v>53.62901657277484</v>
+        <v>3.272566220182</v>
       </c>
       <c r="S11">
-        <v>0.1157085642349093</v>
+        <v>0.0009163029468928851</v>
       </c>
       <c r="T11">
-        <v>0.1157085642349093</v>
+        <v>0.0007549137659031868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H12">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I12">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J12">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>75.93362251271424</v>
+        <v>2.281543100090222</v>
       </c>
       <c r="R12">
-        <v>75.93362251271424</v>
+        <v>20.533887900812</v>
       </c>
       <c r="S12">
-        <v>0.163832398943562</v>
+        <v>0.003832927174734818</v>
       </c>
       <c r="T12">
-        <v>0.163832398943562</v>
+        <v>0.004736745905472855</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.034771</v>
+      </c>
+      <c r="I13">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J13">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.869893</v>
+      </c>
+      <c r="O13">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P13">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q13">
+        <v>0.003360783278111111</v>
+      </c>
+      <c r="R13">
+        <v>0.030247049503</v>
+      </c>
+      <c r="S13">
+        <v>5.646019816394021E-06</v>
+      </c>
+      <c r="T13">
+        <v>6.97737265237064E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.034771</v>
+      </c>
+      <c r="I14">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J14">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N14">
+        <v>163.895484</v>
+      </c>
+      <c r="O14">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P14">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q14">
+        <v>0.6332010971293333</v>
+      </c>
+      <c r="R14">
+        <v>5.698809874164</v>
+      </c>
+      <c r="S14">
+        <v>0.001063759738820164</v>
+      </c>
+      <c r="T14">
+        <v>0.001314598310261894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.034771</v>
+      </c>
+      <c r="I15">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J15">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N15">
+        <v>232.883003</v>
+      </c>
+      <c r="O15">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P15">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q15">
+        <v>0.8997305441458892</v>
+      </c>
+      <c r="R15">
+        <v>8.097574897313002</v>
+      </c>
+      <c r="S15">
+        <v>0.001511521589252182</v>
+      </c>
+      <c r="T15">
+        <v>0.001867944099256058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.034771</v>
+      </c>
+      <c r="I16">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J16">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.352083</v>
+      </c>
+      <c r="N16">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P16">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q16">
+        <v>0.05044209266433334</v>
+      </c>
+      <c r="R16">
+        <v>0.302652555986</v>
+      </c>
+      <c r="S16">
+        <v>8.474127344601535E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.981572424435459E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.129665</v>
+      </c>
+      <c r="H17">
+        <v>0.388995</v>
+      </c>
+      <c r="I17">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J17">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N17">
+        <v>590.546372</v>
+      </c>
+      <c r="O17">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P17">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q17">
+        <v>25.52439844179333</v>
+      </c>
+      <c r="R17">
+        <v>229.71958597614</v>
+      </c>
+      <c r="S17">
+        <v>0.04288025959379858</v>
+      </c>
+      <c r="T17">
+        <v>0.05299158705528784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.129665</v>
+      </c>
+      <c r="H18">
+        <v>0.388995</v>
+      </c>
+      <c r="I18">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J18">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.869893</v>
+      </c>
+      <c r="O18">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P18">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q18">
+        <v>0.03759822528166667</v>
+      </c>
+      <c r="R18">
+        <v>0.338384027535</v>
+      </c>
+      <c r="S18">
+        <v>6.316394347238193E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.805824034134529E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="H13">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="I13">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="J13">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="N13">
-        <v>4.25495216737674</v>
-      </c>
-      <c r="O13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="P13">
-        <v>0.01391131790585118</v>
-      </c>
-      <c r="Q13">
-        <v>4.179020335683721</v>
-      </c>
-      <c r="R13">
-        <v>4.179020335683721</v>
-      </c>
-      <c r="S13">
-        <v>0.009016545032002856</v>
-      </c>
-      <c r="T13">
-        <v>0.009016545032002856</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.129665</v>
+      </c>
+      <c r="H19">
+        <v>0.388995</v>
+      </c>
+      <c r="I19">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J19">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N19">
+        <v>163.895484</v>
+      </c>
+      <c r="O19">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P19">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q19">
+        <v>7.083835977619999</v>
+      </c>
+      <c r="R19">
+        <v>63.75452379857999</v>
+      </c>
+      <c r="S19">
+        <v>0.01190064190280262</v>
+      </c>
+      <c r="T19">
+        <v>0.01470685829283959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.129665</v>
+      </c>
+      <c r="H20">
+        <v>0.388995</v>
+      </c>
+      <c r="I20">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J20">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N20">
+        <v>232.883003</v>
+      </c>
+      <c r="O20">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P20">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q20">
+        <v>10.06559152799834</v>
+      </c>
+      <c r="R20">
+        <v>90.59032375198501</v>
+      </c>
+      <c r="S20">
+        <v>0.01690990597368936</v>
+      </c>
+      <c r="T20">
+        <v>0.0208973257855716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.129665</v>
+      </c>
+      <c r="H21">
+        <v>0.388995</v>
+      </c>
+      <c r="I21">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J21">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.352083</v>
+      </c>
+      <c r="N21">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P21">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q21">
+        <v>0.5643128421950001</v>
+      </c>
+      <c r="R21">
+        <v>3.38587705317</v>
+      </c>
+      <c r="S21">
+        <v>0.0009480294401694728</v>
+      </c>
+      <c r="T21">
+        <v>0.000781052246194608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0020355</v>
+      </c>
+      <c r="H22">
+        <v>2.004071</v>
+      </c>
+      <c r="I22">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J22">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>197.2494763800687</v>
+      </c>
+      <c r="R22">
+        <v>1183.496858280412</v>
+      </c>
+      <c r="S22">
+        <v>0.3313734806015637</v>
+      </c>
+      <c r="T22">
+        <v>0.2730084007801585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0020355</v>
+      </c>
+      <c r="H23">
+        <v>2.004071</v>
+      </c>
+      <c r="I23">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J23">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>0.2905545557338333</v>
+      </c>
+      <c r="R23">
+        <v>1.743327334403</v>
+      </c>
+      <c r="S23">
+        <v>0.0004881233461560171</v>
+      </c>
+      <c r="T23">
+        <v>0.0004021497854191447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0020355</v>
+      </c>
+      <c r="H24">
+        <v>2.004071</v>
+      </c>
+      <c r="I24">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J24">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>54.743031085894</v>
+      </c>
+      <c r="R24">
+        <v>328.458186515364</v>
+      </c>
+      <c r="S24">
+        <v>0.09196672702267976</v>
+      </c>
+      <c r="T24">
+        <v>0.07576855282404486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0020355</v>
+      </c>
+      <c r="H25">
+        <v>2.004071</v>
+      </c>
+      <c r="I25">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J25">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>77.78567878420219</v>
+      </c>
+      <c r="R25">
+        <v>466.7140727052131</v>
+      </c>
+      <c r="S25">
+        <v>0.1306777163251363</v>
+      </c>
+      <c r="T25">
+        <v>0.1076613441931549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0020355</v>
+      </c>
+      <c r="H26">
+        <v>2.004071</v>
+      </c>
+      <c r="I26">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J26">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>4.360941664946501</v>
+      </c>
+      <c r="R26">
+        <v>17.443766659786</v>
+      </c>
+      <c r="S26">
+        <v>0.00732625730995209</v>
+      </c>
+      <c r="T26">
+        <v>0.004023918446467112</v>
       </c>
     </row>
   </sheetData>
